--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J412"/>
+  <dimension ref="A1:J417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14759,6 +14759,186 @@
       <c r="J412" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="C413" t="n">
+        <v>336.74</v>
+      </c>
+      <c r="D413" t="n">
+        <v>344.2830769230769</v>
+      </c>
+      <c r="E413" t="n">
+        <v>341.06</v>
+      </c>
+      <c r="F413" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="G413" t="n">
+        <v>336.9290909090909</v>
+      </c>
+      <c r="H413" t="n">
+        <v>342.44</v>
+      </c>
+      <c r="I413" t="n">
+        <v>356.5085714285714</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>322.36</v>
+      </c>
+      <c r="C414" t="n">
+        <v>325</v>
+      </c>
+      <c r="D414" t="n">
+        <v>328.1892307692308</v>
+      </c>
+      <c r="E414" t="n">
+        <v>333.36</v>
+      </c>
+      <c r="F414" t="n">
+        <v>329.24</v>
+      </c>
+      <c r="G414" t="n">
+        <v>331.8672727272727</v>
+      </c>
+      <c r="H414" t="n">
+        <v>333.8966666666667</v>
+      </c>
+      <c r="I414" t="n">
+        <v>352.93</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="C415" t="n">
+        <v>339.42</v>
+      </c>
+      <c r="D415" t="n">
+        <v>333.8161538461539</v>
+      </c>
+      <c r="E415" t="n">
+        <v>344.39</v>
+      </c>
+      <c r="F415" t="n">
+        <v>347.37</v>
+      </c>
+      <c r="G415" t="n">
+        <v>342.01</v>
+      </c>
+      <c r="H415" t="n">
+        <v>339.9233333333333</v>
+      </c>
+      <c r="I415" t="n">
+        <v>364.67</v>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>324.77</v>
+      </c>
+      <c r="C416" t="n">
+        <v>336.22</v>
+      </c>
+      <c r="D416" t="n">
+        <v>326.8538461538461</v>
+      </c>
+      <c r="E416" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="F416" t="n">
+        <v>325.83</v>
+      </c>
+      <c r="G416" t="n">
+        <v>331.1909090909091</v>
+      </c>
+      <c r="H416" t="n">
+        <v>336.0966666666667</v>
+      </c>
+      <c r="I416" t="n">
+        <v>344.0928571428572</v>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>336.11</v>
+      </c>
+      <c r="C417" t="n">
+        <v>342.77</v>
+      </c>
+      <c r="D417" t="n">
+        <v>332.3384615384616</v>
+      </c>
+      <c r="E417" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="F417" t="n">
+        <v>330.64</v>
+      </c>
+      <c r="G417" t="n">
+        <v>322.9945454545455</v>
+      </c>
+      <c r="H417" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="I417" t="n">
+        <v>349.5428571428571</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19131,6 +19311,56 @@
       </c>
       <c r="B435" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -19299,28 +19529,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3728458692983528</v>
+        <v>-0.3632752527940286</v>
       </c>
       <c r="J2" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0474981771224342</v>
+        <v>0.04586151875776556</v>
       </c>
       <c r="M2" t="n">
-        <v>10.05635196762629</v>
+        <v>10.05638685641154</v>
       </c>
       <c r="N2" t="n">
-        <v>155.1787820307869</v>
+        <v>154.8427822417721</v>
       </c>
       <c r="O2" t="n">
-        <v>12.45707758789304</v>
+        <v>12.44358397897375</v>
       </c>
       <c r="P2" t="n">
-        <v>340.9224484244876</v>
+        <v>340.8308869488948</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19376,28 +19606,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4084752716502943</v>
+        <v>-0.3901685487676249</v>
       </c>
       <c r="J3" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07727078444134983</v>
+        <v>0.07203959618914102</v>
       </c>
       <c r="M3" t="n">
-        <v>8.359249017211766</v>
+        <v>8.358605579405827</v>
       </c>
       <c r="N3" t="n">
-        <v>110.9810535790009</v>
+        <v>110.7094733311101</v>
       </c>
       <c r="O3" t="n">
-        <v>10.53475455713141</v>
+        <v>10.52185693359828</v>
       </c>
       <c r="P3" t="n">
-        <v>338.9413712728924</v>
+        <v>338.7663186415814</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19453,28 +19683,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2752249500578167</v>
+        <v>-0.2660534460641676</v>
       </c>
       <c r="J4" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06327699790618235</v>
+        <v>0.06026520298129179</v>
       </c>
       <c r="M4" t="n">
-        <v>6.170702891415196</v>
+        <v>6.155540911155693</v>
       </c>
       <c r="N4" t="n">
-        <v>62.70590220655601</v>
+        <v>62.56071087666778</v>
       </c>
       <c r="O4" t="n">
-        <v>7.91870584164837</v>
+        <v>7.909532911409356</v>
       </c>
       <c r="P4" t="n">
-        <v>336.3235900813415</v>
+        <v>336.2365019315437</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19530,28 +19760,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1045160665606594</v>
+        <v>-0.09963063224004901</v>
       </c>
       <c r="J5" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009513054669029075</v>
+        <v>0.008793886614840152</v>
       </c>
       <c r="M5" t="n">
-        <v>6.425653358944611</v>
+        <v>6.411944023296557</v>
       </c>
       <c r="N5" t="n">
-        <v>63.98256158947062</v>
+        <v>63.78008243726433</v>
       </c>
       <c r="O5" t="n">
-        <v>7.998910025089082</v>
+        <v>7.986243324446378</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9916604555377</v>
+        <v>335.9455830520853</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19607,28 +19837,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04367819137994455</v>
+        <v>-0.05213633971255403</v>
       </c>
       <c r="J6" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001663205296337344</v>
+        <v>0.002399349123233252</v>
       </c>
       <c r="M6" t="n">
-        <v>6.273611417247851</v>
+        <v>6.287573330555565</v>
       </c>
       <c r="N6" t="n">
-        <v>64.46385363730789</v>
+        <v>64.51369476573707</v>
       </c>
       <c r="O6" t="n">
-        <v>8.028938512487681</v>
+        <v>8.03204175572669</v>
       </c>
       <c r="P6" t="n">
-        <v>338.4325703042009</v>
+        <v>338.5126376159973</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19684,28 +19914,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1219337739918104</v>
+        <v>-0.1334449377217043</v>
       </c>
       <c r="J7" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K7" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01064191856741659</v>
+        <v>0.01292725540550177</v>
       </c>
       <c r="M7" t="n">
-        <v>6.815105429771013</v>
+        <v>6.811547820907624</v>
       </c>
       <c r="N7" t="n">
-        <v>78.88524484103262</v>
+        <v>78.65145491761159</v>
       </c>
       <c r="O7" t="n">
-        <v>8.881736589261845</v>
+        <v>8.868565550167151</v>
       </c>
       <c r="P7" t="n">
-        <v>340.788216268226</v>
+        <v>340.896611059139</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19761,28 +19991,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2438634715413679</v>
+        <v>-0.254040012147722</v>
       </c>
       <c r="J8" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K8" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04122485824205757</v>
+        <v>0.04542478438019981</v>
       </c>
       <c r="M8" t="n">
-        <v>7.015038620607481</v>
+        <v>6.989254447449615</v>
       </c>
       <c r="N8" t="n">
-        <v>78.87605943822348</v>
+        <v>78.36543491912961</v>
       </c>
       <c r="O8" t="n">
-        <v>8.88121947922826</v>
+        <v>8.852425369305838</v>
       </c>
       <c r="P8" t="n">
-        <v>346.5651731162185</v>
+        <v>346.6613039367395</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19838,28 +20068,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2381503646784683</v>
+        <v>-0.2348238243010783</v>
       </c>
       <c r="J9" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K9" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03828459264035755</v>
+        <v>0.03791868722863956</v>
       </c>
       <c r="M9" t="n">
-        <v>6.986965507921909</v>
+        <v>6.968864155413915</v>
       </c>
       <c r="N9" t="n">
-        <v>80.80524049000373</v>
+        <v>80.39464456794489</v>
       </c>
       <c r="O9" t="n">
-        <v>8.989173515401943</v>
+        <v>8.966306071507089</v>
       </c>
       <c r="P9" t="n">
-        <v>358.2169867958737</v>
+        <v>358.1857811998319</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19896,7 +20126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J412"/>
+  <dimension ref="A1:J417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40284,6 +40514,266 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-42.525998916496526,173.50273067192376</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-42.5266509347684,173.50254967819873</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-42.52731615695171,173.50254876457723</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-42.52797214205176,173.5024173431887</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-42.52863093619854,173.50227998137444</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-42.52929573920718,173.5022580842869</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-42.52996045951321,173.50229818685045</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-42.530616472039746,173.50251186133198</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-42.52597962866119,173.50246775893098</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-42.52664049967823,173.50240743715833</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-42.5273018519644,173.50235377056808</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-42.52796570941103,173.50232399503736</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-42.52862724909058,173.5021917259903</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-42.529294557592365,173.50219647282864</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-42.52996143728309,173.5021941714158</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-42.53061812686907,173.50246834558584</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-42.526004071668176,173.50280094362566</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-42.52665331685959,173.50258214890258</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-42.52730685348302,173.50242194669715</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-42.527974923936426,173.50245771323907</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-42.528636456575974,173.5024121213411</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-42.529296925245184,173.50231992811794</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-42.52996074755123,173.50226754633073</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-42.530612697910115,173.5026111050185</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-42.52598177079623,173.50249695801605</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-42.52665047257053,173.50254337791318</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-42.52730066499515,173.50233759097154</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-42.52795923492302,173.5022300407478</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-42.528625517243675,173.50215027270715</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-42.52929439970166,173.50218824026325</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-42.529961185505876,173.50222095650665</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-42.53062221333496,173.50236088513395</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-42.52599185028596,173.502634351247</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-42.526656294460615,173.50262273728578</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-42.52730554003277,173.50240404288974</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-42.52796499095552,173.50231356914108</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-42.52862796010844,173.50220874493414</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-42.529292486291034,173.5020884757371</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-42.5299620548737,173.50212846677508</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-42.53061969316138,173.50242715762585</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -19374,7 +19374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19465,35 +19465,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19552,27 +19557,28 @@
       <c r="P2" t="n">
         <v>340.8308869488948</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.4985621260536 -42.52569303094684, 173.5094071850971 -42.52648851287882)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.4985621260536</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.52569303094684</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.5094071850971</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.52648851287882</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.5039846555754</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.52609077191283</v>
       </c>
     </row>
@@ -19629,27 +19635,28 @@
       <c r="P3" t="n">
         <v>338.7663186415814</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.4984697774341 -42.526351553471656, 173.50931491218586 -42.52714703793457)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.4984697774341</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.52635155347166</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.5093149121859</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.52714703793457</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.50389234481</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.52674929570311</v>
       </c>
     </row>
@@ -19706,27 +19713,28 @@
       <c r="P4" t="n">
         <v>336.2365019315437</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.49837742881405 -42.52701006905465, 173.50922263927572 -42.52780555604851)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.4983774288141</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.52701006905465</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.5092226392757</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.52780555604851</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.5038000340449</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.52740781255158</v>
       </c>
     </row>
@@ -19783,27 +19791,28 @@
       <c r="P5" t="n">
         <v>335.9455830520853</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.49828264392247 -42.52768714482726, 173.50913416370477 -42.52843479636629)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.4982826439225</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.52768714482726</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.5091341637048</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.52843479636629</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.5037084038136</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.52806097059678</v>
       </c>
     </row>
@@ -19860,27 +19869,28 @@
       <c r="P6" t="n">
         <v>338.5126376159973</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.4981893667102 -42.528459967758614, 173.5090706744687 -42.52891443060814)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.4981893667102</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.52845996775861</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.5090706744687</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.52891443060814</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.5036300205894</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.52868719918338</v>
       </c>
     </row>
@@ -19937,27 +19947,28 @@
       <c r="P7" t="n">
         <v>340.896611059139</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.49815705384924 -42.52921701523985, 173.50905214516473 -42.52942583550419)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.4981570538492</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.52921701523985</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.5090521451647</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.52942583550419</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.503604599507</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.52932142537202</v>
       </c>
     </row>
@@ -20014,27 +20025,28 @@
       <c r="P8" t="n">
         <v>346.6613039367395</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.4981289625256 -42.529999577247075, 173.50902690880213 -42.529897007274904)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.4981289625256</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.52999957724708</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.5090269088021</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.5298970072749</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.5035779356639</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.52994829226099</v>
       </c>
     </row>
@@ -20091,27 +20103,28 @@
       <c r="P9" t="n">
         <v>358.1857811998319</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.49817667341094 -42.5307812502344, 173.5090611571014 -42.530367224203985)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.4981766734109</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.5307812502344</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.5090611571014</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.53036722420399</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.5036189152562</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.53057423721919</v>
       </c>
     </row>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J417"/>
+  <dimension ref="A1:J420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14937,6 +14937,114 @@
         <v>349.5428571428571</v>
       </c>
       <c r="J417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>329.24</v>
+      </c>
+      <c r="C418" t="n">
+        <v>338.73</v>
+      </c>
+      <c r="D418" t="n">
+        <v>333.8523076923077</v>
+      </c>
+      <c r="E418" t="n">
+        <v>332.55</v>
+      </c>
+      <c r="F418" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="G418" t="n">
+        <v>334.0227272727273</v>
+      </c>
+      <c r="H418" t="n">
+        <v>338.49</v>
+      </c>
+      <c r="I418" t="n">
+        <v>350.5742857142857</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>345.02</v>
+      </c>
+      <c r="C419" t="n">
+        <v>335.43</v>
+      </c>
+      <c r="D419" t="n">
+        <v>334.57</v>
+      </c>
+      <c r="E419" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="F419" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="G419" t="n">
+        <v>330.2509090909091</v>
+      </c>
+      <c r="H419" t="n">
+        <v>330.24</v>
+      </c>
+      <c r="I419" t="n">
+        <v>358.4528571428572</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>338.66</v>
+      </c>
+      <c r="C420" t="n">
+        <v>335.35</v>
+      </c>
+      <c r="D420" t="n">
+        <v>341.4846153846154</v>
+      </c>
+      <c r="E420" t="n">
+        <v>334.23</v>
+      </c>
+      <c r="F420" t="n">
+        <v>335.32</v>
+      </c>
+      <c r="G420" t="n">
+        <v>336.5781818181818</v>
+      </c>
+      <c r="H420" t="n">
+        <v>339.0966666666667</v>
+      </c>
+      <c r="I420" t="n">
+        <v>360.85</v>
+      </c>
+      <c r="J420" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14953,7 +15061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19361,6 +19469,36 @@
       </c>
       <c r="B440" t="n">
         <v>-0.03</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19534,28 +19672,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3632752527940286</v>
+        <v>-0.3544850670892483</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K2" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04586151875776556</v>
+        <v>0.0442513841116321</v>
       </c>
       <c r="M2" t="n">
-        <v>10.05638685641154</v>
+        <v>10.03614071147476</v>
       </c>
       <c r="N2" t="n">
-        <v>154.8427822417721</v>
+        <v>154.2648398078853</v>
       </c>
       <c r="O2" t="n">
-        <v>12.44358397897375</v>
+        <v>12.4203397621758</v>
       </c>
       <c r="P2" t="n">
-        <v>340.8308869488948</v>
+        <v>340.7456805585093</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19612,28 +19750,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3901685487676249</v>
+        <v>-0.3789174394028801</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K3" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07203959618914102</v>
+        <v>0.06896101447893266</v>
       </c>
       <c r="M3" t="n">
-        <v>8.358605579405827</v>
+        <v>8.349529526214825</v>
       </c>
       <c r="N3" t="n">
-        <v>110.7094733311101</v>
+        <v>110.3271046385162</v>
       </c>
       <c r="O3" t="n">
-        <v>10.52185693359828</v>
+        <v>10.50367100772469</v>
       </c>
       <c r="P3" t="n">
-        <v>338.7663186415814</v>
+        <v>338.6578992896924</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19690,28 +19828,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2660534460641676</v>
+        <v>-0.255534453873838</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K4" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06026520298129179</v>
+        <v>0.05627906967184215</v>
       </c>
       <c r="M4" t="n">
-        <v>6.155540911155693</v>
+        <v>6.159719390972819</v>
       </c>
       <c r="N4" t="n">
-        <v>62.56071087666778</v>
+        <v>62.56383261033739</v>
       </c>
       <c r="O4" t="n">
-        <v>7.909532911409356</v>
+        <v>7.90973024889834</v>
       </c>
       <c r="P4" t="n">
-        <v>336.2365019315437</v>
+        <v>336.1352422531572</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19768,28 +19906,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09963063224004901</v>
+        <v>-0.097611559087469</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K5" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008793886614840152</v>
+        <v>0.008569344338147822</v>
       </c>
       <c r="M5" t="n">
-        <v>6.411944023296557</v>
+        <v>6.37731640522936</v>
       </c>
       <c r="N5" t="n">
-        <v>63.78008243726433</v>
+        <v>63.33940845322388</v>
       </c>
       <c r="O5" t="n">
-        <v>7.986243324446378</v>
+        <v>7.958605936545915</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9455830520853</v>
+        <v>335.9262068885673</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19846,28 +19984,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05213633971255403</v>
+        <v>-0.05266162403827863</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K6" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002399349123233252</v>
+        <v>0.002486965600677626</v>
       </c>
       <c r="M6" t="n">
-        <v>6.287573330555565</v>
+        <v>6.249880116481871</v>
       </c>
       <c r="N6" t="n">
-        <v>64.51369476573707</v>
+        <v>64.02594584885956</v>
       </c>
       <c r="O6" t="n">
-        <v>8.03204175572669</v>
+        <v>8.001621451234715</v>
       </c>
       <c r="P6" t="n">
-        <v>338.5126376159973</v>
+        <v>338.517661243223</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19924,28 +20062,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1334449377217043</v>
+        <v>-0.1390580901264201</v>
       </c>
       <c r="J7" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K7" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01292725540550177</v>
+        <v>0.01421436397122244</v>
       </c>
       <c r="M7" t="n">
-        <v>6.811547820907624</v>
+        <v>6.788432283553791</v>
       </c>
       <c r="N7" t="n">
-        <v>78.65145491761159</v>
+        <v>78.19845410000814</v>
       </c>
       <c r="O7" t="n">
-        <v>8.868565550167151</v>
+        <v>8.842988979977761</v>
       </c>
       <c r="P7" t="n">
-        <v>340.896611059139</v>
+        <v>340.9498081584046</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20002,28 +20140,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.254040012147722</v>
+        <v>-0.2601065735543722</v>
       </c>
       <c r="J8" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K8" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04542478438019981</v>
+        <v>0.04807851216679371</v>
       </c>
       <c r="M8" t="n">
-        <v>6.989254447449615</v>
+        <v>6.967510624057639</v>
       </c>
       <c r="N8" t="n">
-        <v>78.36543491912961</v>
+        <v>78.01337593314014</v>
       </c>
       <c r="O8" t="n">
-        <v>8.852425369305838</v>
+        <v>8.832518096960806</v>
       </c>
       <c r="P8" t="n">
-        <v>346.6613039367395</v>
+        <v>346.7190299871585</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20080,28 +20218,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2348238243010783</v>
+        <v>-0.2283639296942759</v>
       </c>
       <c r="J9" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K9" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03791868722863956</v>
+        <v>0.03634765824120745</v>
       </c>
       <c r="M9" t="n">
-        <v>6.968864155413915</v>
+        <v>6.956335233372783</v>
       </c>
       <c r="N9" t="n">
-        <v>80.39464456794489</v>
+        <v>80.07107389532455</v>
       </c>
       <c r="O9" t="n">
-        <v>8.966306071507089</v>
+        <v>8.948244179464737</v>
       </c>
       <c r="P9" t="n">
-        <v>358.1857811998319</v>
+        <v>358.123860327723</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20139,7 +20277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J417"/>
+  <dimension ref="A1:J420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40787,6 +40925,162 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-42.52598574394813,173.5025511156602</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-42.52665270356087,173.5025737889077</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-42.527306885618415,173.5024223847393</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-42.527965032726215,173.50231417529784</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-42.52863080923314,173.50227694227704</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-42.5292950607589,173.5022227085984</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-42.52996091159568,173.50225009543854</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-42.530619216206794,173.50243969988972</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-42.5259997697693,173.5027423031012</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-42.526649770384644,173.5025338063257</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-42.527307523539854,173.50243108034203</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-42.52796925154989,173.50237539713402</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-42.52863214998366,173.50230903514628</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-42.529294180266575,173.50217679876786</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-42.529961855753484,173.50214965134748</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-42.53061557294191,173.5025355040178</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-42.525994116815156,173.50266524655612</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-42.526649699277165,173.502532837051</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-42.52731366956788,173.50251485824253</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-42.5279664362197,173.50233454216522</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-42.52863033692116,173.50226563683475</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-42.52929565729314,173.5022538130902</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-42.529960842163234,173.50225748163012</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-42.53061446442224,173.5025646534854</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15047,6 +15047,78 @@
       <c r="J420" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>347.26</v>
+      </c>
+      <c r="C421" t="n">
+        <v>341.65</v>
+      </c>
+      <c r="D421" t="n">
+        <v>334.16</v>
+      </c>
+      <c r="E421" t="n">
+        <v>332.28</v>
+      </c>
+      <c r="F421" t="n">
+        <v>337.77</v>
+      </c>
+      <c r="G421" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="H421" t="n">
+        <v>339.11</v>
+      </c>
+      <c r="I421" t="n">
+        <v>352.41</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>347.05</v>
+      </c>
+      <c r="C422" t="n">
+        <v>347.33</v>
+      </c>
+      <c r="D422" t="n">
+        <v>342.0369230769231</v>
+      </c>
+      <c r="E422" t="n">
+        <v>336.16</v>
+      </c>
+      <c r="F422" t="n">
+        <v>336.96</v>
+      </c>
+      <c r="G422" t="n">
+        <v>338.6627272727272</v>
+      </c>
+      <c r="H422" t="n">
+        <v>340.4466666666667</v>
+      </c>
+      <c r="I422" t="n">
+        <v>356.04</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15061,7 +15133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B443"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19499,6 +19571,26 @@
       </c>
       <c r="B443" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19672,28 +19764,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3544850670892483</v>
+        <v>-0.3396815327249965</v>
       </c>
       <c r="J2" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K2" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0442513841116321</v>
+        <v>0.04087902759012896</v>
       </c>
       <c r="M2" t="n">
-        <v>10.03614071147476</v>
+        <v>10.05999892348017</v>
       </c>
       <c r="N2" t="n">
-        <v>154.2648398078853</v>
+        <v>154.6903914558154</v>
       </c>
       <c r="O2" t="n">
-        <v>12.4203397621758</v>
+        <v>12.43745920418698</v>
       </c>
       <c r="P2" t="n">
-        <v>340.7456805585093</v>
+        <v>340.6013164665223</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19750,28 +19842,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3789174394028801</v>
+        <v>-0.3638116612439834</v>
       </c>
       <c r="J3" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K3" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06896101447893266</v>
+        <v>0.06386099151077329</v>
       </c>
       <c r="M3" t="n">
-        <v>8.349529526214825</v>
+        <v>8.382373843269614</v>
       </c>
       <c r="N3" t="n">
-        <v>110.3271046385162</v>
+        <v>111.032359298083</v>
       </c>
       <c r="O3" t="n">
-        <v>10.50367100772469</v>
+        <v>10.53718934527054</v>
       </c>
       <c r="P3" t="n">
-        <v>338.6578992896924</v>
+        <v>338.5111042392264</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19828,28 +19920,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.255534453873838</v>
+        <v>-0.2472513084744205</v>
       </c>
       <c r="J4" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K4" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05627906967184215</v>
+        <v>0.05304867224272947</v>
       </c>
       <c r="M4" t="n">
-        <v>6.159719390972819</v>
+        <v>6.169087023114872</v>
       </c>
       <c r="N4" t="n">
-        <v>62.56383261033739</v>
+        <v>62.69283197970366</v>
       </c>
       <c r="O4" t="n">
-        <v>7.90973024889834</v>
+        <v>7.917880523202132</v>
       </c>
       <c r="P4" t="n">
-        <v>336.1352422531572</v>
+        <v>336.0549386777134</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19906,28 +19998,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.097611559087469</v>
+        <v>-0.09683065435534245</v>
       </c>
       <c r="J5" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K5" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008569344338147822</v>
+        <v>0.008518692975172049</v>
       </c>
       <c r="M5" t="n">
-        <v>6.37731640522936</v>
+        <v>6.354542062059695</v>
       </c>
       <c r="N5" t="n">
-        <v>63.33940845322388</v>
+        <v>63.03958928097927</v>
       </c>
       <c r="O5" t="n">
-        <v>7.958605936545915</v>
+        <v>7.939747431812883</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9262068885673</v>
+        <v>335.9186442793732</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19984,28 +20076,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05266162403827863</v>
+        <v>-0.05245905250304263</v>
       </c>
       <c r="J6" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K6" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002486965600677626</v>
+        <v>0.002494646162889635</v>
       </c>
       <c r="M6" t="n">
-        <v>6.249880116481871</v>
+        <v>6.219462558970975</v>
       </c>
       <c r="N6" t="n">
-        <v>64.02594584885956</v>
+        <v>63.69354697102664</v>
       </c>
       <c r="O6" t="n">
-        <v>8.001621451234715</v>
+        <v>7.980823702540149</v>
       </c>
       <c r="P6" t="n">
-        <v>338.517661243223</v>
+        <v>338.5157187268769</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20062,28 +20154,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1390580901264201</v>
+        <v>-0.1411405507037875</v>
       </c>
       <c r="J7" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01421436397122244</v>
+        <v>0.01477538053160032</v>
       </c>
       <c r="M7" t="n">
-        <v>6.788432283553791</v>
+        <v>6.77109201572382</v>
       </c>
       <c r="N7" t="n">
-        <v>78.19845410000814</v>
+        <v>77.8755716734054</v>
       </c>
       <c r="O7" t="n">
-        <v>8.842988979977761</v>
+        <v>8.824713687899761</v>
       </c>
       <c r="P7" t="n">
-        <v>340.9498081584046</v>
+        <v>340.9696811024087</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20140,28 +20232,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2601065735543722</v>
+        <v>-0.2603206693259185</v>
       </c>
       <c r="J8" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K8" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04807851216679371</v>
+        <v>0.04863672641564043</v>
       </c>
       <c r="M8" t="n">
-        <v>6.967510624057639</v>
+        <v>6.934738512083057</v>
       </c>
       <c r="N8" t="n">
-        <v>78.01337593314014</v>
+        <v>77.6096794608407</v>
       </c>
       <c r="O8" t="n">
-        <v>8.832518096960806</v>
+        <v>8.809635603181365</v>
       </c>
       <c r="P8" t="n">
-        <v>346.7190299871585</v>
+        <v>346.721076858119</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20218,28 +20310,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2283639296942759</v>
+        <v>-0.226445981918329</v>
       </c>
       <c r="J9" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K9" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03634765824120745</v>
+        <v>0.03610708452960298</v>
       </c>
       <c r="M9" t="n">
-        <v>6.956335233372783</v>
+        <v>6.93027136686345</v>
       </c>
       <c r="N9" t="n">
-        <v>80.07107389532455</v>
+        <v>79.69470365549337</v>
       </c>
       <c r="O9" t="n">
-        <v>8.948244179464737</v>
+        <v>8.927189011973107</v>
       </c>
       <c r="P9" t="n">
-        <v>358.123860327723</v>
+        <v>358.1053589429966</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20277,7 +20369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41081,6 +41173,110 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-42.52600176073451,173.50276944251652</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-42.52665529896576,173.50260916743784</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-42.527307159111075,173.50242611275763</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-42.527964807164416,173.5023109020514</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-42.52863158118151,173.50229541998948</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-42.529294530216205,173.502195045408</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-42.52996084063724,173.502257643964</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-42.53061836732992,173.5024620223395</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-42.52600157408179,173.50276689819626</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-42.526660347530225,173.50267798595664</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-42.52731416048171,173.50252155003682</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-42.527968048561924,173.50235793981753</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-42.52863116981466,173.5022855733137</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-42.52929614389415,173.50227918576917</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-42.52996068765523,173.50227391793553</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-42.53061668872093,173.50250616346196</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J422"/>
+  <dimension ref="A1:J423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15119,6 +15119,42 @@
       <c r="J422" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>330.2</v>
+      </c>
+      <c r="C423" t="n">
+        <v>328.93</v>
+      </c>
+      <c r="D423" t="n">
+        <v>333.6615384615384</v>
+      </c>
+      <c r="E423" t="n">
+        <v>333.06</v>
+      </c>
+      <c r="F423" t="n">
+        <v>337.12</v>
+      </c>
+      <c r="G423" t="n">
+        <v>330.5227272727273</v>
+      </c>
+      <c r="H423" t="n">
+        <v>340.9033333333333</v>
+      </c>
+      <c r="I423" t="n">
+        <v>355.5757142857143</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15133,7 +15169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B445"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19591,6 +19627,16 @@
       </c>
       <c r="B445" t="n">
         <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -19764,28 +19810,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3396815327249965</v>
+        <v>-0.3404467238555789</v>
       </c>
       <c r="J2" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04087902759012896</v>
+        <v>0.04125676321448235</v>
       </c>
       <c r="M2" t="n">
-        <v>10.05999892348017</v>
+        <v>10.03886659300985</v>
       </c>
       <c r="N2" t="n">
-        <v>154.6903914558154</v>
+        <v>154.3072604353639</v>
       </c>
       <c r="O2" t="n">
-        <v>12.43745920418698</v>
+        <v>12.42204735280638</v>
       </c>
       <c r="P2" t="n">
-        <v>340.6013164665223</v>
+        <v>340.6087951344445</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19842,28 +19888,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3638116612439834</v>
+        <v>-0.3638936892799061</v>
       </c>
       <c r="J3" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06386099151077329</v>
+        <v>0.06420230916258951</v>
       </c>
       <c r="M3" t="n">
-        <v>8.382373843269614</v>
+        <v>8.361436646002405</v>
       </c>
       <c r="N3" t="n">
-        <v>111.032359298083</v>
+        <v>110.7491869023621</v>
       </c>
       <c r="O3" t="n">
-        <v>10.53718934527054</v>
+        <v>10.52374395841908</v>
       </c>
       <c r="P3" t="n">
-        <v>338.5111042392264</v>
+        <v>338.5119029619167</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19920,28 +19966,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2472513084744205</v>
+        <v>-0.2453244128122533</v>
       </c>
       <c r="J4" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K4" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05304867224272947</v>
+        <v>0.05249633420586386</v>
       </c>
       <c r="M4" t="n">
-        <v>6.169087023114872</v>
+        <v>6.16293329710891</v>
       </c>
       <c r="N4" t="n">
-        <v>62.69283197970366</v>
+        <v>62.57314143512245</v>
       </c>
       <c r="O4" t="n">
-        <v>7.917880523202132</v>
+        <v>7.910318668367442</v>
       </c>
       <c r="P4" t="n">
-        <v>336.0549386777134</v>
+        <v>336.036226100305</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19998,28 +20044,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09683065435534245</v>
+        <v>-0.09699888153747147</v>
       </c>
       <c r="J5" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K5" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008518692975172049</v>
+        <v>0.008592058884192233</v>
       </c>
       <c r="M5" t="n">
-        <v>6.354542062059695</v>
+        <v>6.339348846138791</v>
       </c>
       <c r="N5" t="n">
-        <v>63.03958928097927</v>
+        <v>62.87990576767018</v>
       </c>
       <c r="O5" t="n">
-        <v>7.939747431812883</v>
+        <v>7.929685098897067</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9186442793732</v>
+        <v>335.9202727704073</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20076,28 +20122,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05245905250304263</v>
+        <v>-0.05247798982858908</v>
       </c>
       <c r="J6" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002494646162889635</v>
+        <v>0.002509840075342828</v>
       </c>
       <c r="M6" t="n">
-        <v>6.219462558970975</v>
+        <v>6.20340511233521</v>
       </c>
       <c r="N6" t="n">
-        <v>63.69354697102664</v>
+        <v>63.52811305573766</v>
       </c>
       <c r="O6" t="n">
-        <v>7.980823702540149</v>
+        <v>7.970452500061565</v>
       </c>
       <c r="P6" t="n">
-        <v>338.5157187268769</v>
+        <v>338.515901119328</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20154,28 +20200,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1411405507037875</v>
+        <v>-0.1444259238573881</v>
       </c>
       <c r="J7" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01477538053160032</v>
+        <v>0.01551767768792667</v>
       </c>
       <c r="M7" t="n">
-        <v>6.77109201572382</v>
+        <v>6.7713529335026</v>
       </c>
       <c r="N7" t="n">
-        <v>77.8755716734054</v>
+        <v>77.79188237004111</v>
       </c>
       <c r="O7" t="n">
-        <v>8.824713687899761</v>
+        <v>8.819970655849207</v>
       </c>
       <c r="P7" t="n">
-        <v>340.9696811024087</v>
+        <v>341.0011621772068</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20232,28 +20278,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2603206693259185</v>
+        <v>-0.2598816051750008</v>
       </c>
       <c r="J8" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K8" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04863672641564043</v>
+        <v>0.04872079174927646</v>
       </c>
       <c r="M8" t="n">
-        <v>6.934738512083057</v>
+        <v>6.919073430722968</v>
       </c>
       <c r="N8" t="n">
-        <v>77.6096794608407</v>
+        <v>77.41025839507144</v>
       </c>
       <c r="O8" t="n">
-        <v>8.809635603181365</v>
+        <v>8.798309973800164</v>
       </c>
       <c r="P8" t="n">
-        <v>346.721076858119</v>
+        <v>346.7168550052747</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20310,28 +20356,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.226445981918329</v>
+        <v>-0.2248577858090638</v>
       </c>
       <c r="J9" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03610708452960298</v>
+        <v>0.03578660510200171</v>
       </c>
       <c r="M9" t="n">
-        <v>6.93027136686345</v>
+        <v>6.920556182953959</v>
       </c>
       <c r="N9" t="n">
-        <v>79.69470365549337</v>
+        <v>79.51762743379433</v>
       </c>
       <c r="O9" t="n">
-        <v>8.927189011973107</v>
+        <v>8.917265692677006</v>
       </c>
       <c r="P9" t="n">
-        <v>358.1053589429966</v>
+        <v>358.0900196642386</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20369,7 +20415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J422"/>
+  <dimension ref="A1:J423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28112,7 +28158,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-42.52797116462943,173.50240315911776</t>
+          <t>-42.527971164629434,173.50240315911776</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -30824,7 +30870,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-42.52796758908664,173.50235127209265</t>
+          <t>-42.52796758908665,173.50235127209265</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -40681,7 +40727,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>-42.52863071273939,173.50227463256303</t>
+          <t>-42.528630712739385,173.50227463256303</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -41274,6 +41320,58 @@
       <c r="J422" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-42.525986597239154,173.50256274683295</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-42.526643992875464,173.50245505276558</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-42.52730671605291,173.502420073368</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-42.52796545878713,173.50232035809677</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-42.52863125107239,173.50228751833606</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-42.529294243720365,173.50218010728537</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-42.529960635389045,173.5022794778709</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-42.53061690342,173.50250051770658</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J423"/>
+  <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15155,6 +15155,42 @@
       <c r="J423" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>321.19</v>
+      </c>
+      <c r="C424" t="n">
+        <v>329.01</v>
+      </c>
+      <c r="D424" t="n">
+        <v>327.2969230769231</v>
+      </c>
+      <c r="E424" t="n">
+        <v>329</v>
+      </c>
+      <c r="F424" t="n">
+        <v>334.54</v>
+      </c>
+      <c r="G424" t="n">
+        <v>332.9245454545455</v>
+      </c>
+      <c r="H424" t="n">
+        <v>329.2633333333333</v>
+      </c>
+      <c r="I424" t="n">
+        <v>352.5085714285714</v>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19637,6 +19673,16 @@
       </c>
       <c r="B446" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -19810,28 +19856,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3404467238555789</v>
+        <v>-0.3454831325074044</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04125676321448235</v>
+        <v>0.0425735616368067</v>
       </c>
       <c r="M2" t="n">
-        <v>10.03886659300985</v>
+        <v>10.04095479598282</v>
       </c>
       <c r="N2" t="n">
-        <v>154.3072604353639</v>
+        <v>154.1975875934446</v>
       </c>
       <c r="O2" t="n">
-        <v>12.42204735280638</v>
+        <v>12.41763212506493</v>
       </c>
       <c r="P2" t="n">
-        <v>340.6087951344445</v>
+        <v>340.6583944140647</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19888,28 +19934,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3638936892799061</v>
+        <v>-0.3639097761464299</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06420230916258951</v>
+        <v>0.06452913907033409</v>
       </c>
       <c r="M3" t="n">
-        <v>8.361436646002405</v>
+        <v>8.3402467977184</v>
       </c>
       <c r="N3" t="n">
-        <v>110.7491869023621</v>
+        <v>110.4673851373305</v>
       </c>
       <c r="O3" t="n">
-        <v>10.52374395841908</v>
+        <v>10.51034657550979</v>
       </c>
       <c r="P3" t="n">
-        <v>338.5119029619167</v>
+        <v>338.5120607918374</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19966,28 +20012,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2453244128122533</v>
+        <v>-0.2464656103975633</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K4" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05249633420586386</v>
+        <v>0.05321714687535484</v>
       </c>
       <c r="M4" t="n">
-        <v>6.16293329710891</v>
+        <v>6.153531947340756</v>
       </c>
       <c r="N4" t="n">
-        <v>62.57314143512245</v>
+        <v>62.42756273509664</v>
       </c>
       <c r="O4" t="n">
-        <v>7.910318668367442</v>
+        <v>7.901111487322314</v>
       </c>
       <c r="P4" t="n">
-        <v>336.036226100305</v>
+        <v>336.0473930818351</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20044,28 +20090,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09699888153747147</v>
+        <v>-0.09910169666981503</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008592058884192233</v>
+        <v>0.009005339083379194</v>
       </c>
       <c r="M5" t="n">
-        <v>6.339348846138791</v>
+        <v>6.334798378225257</v>
       </c>
       <c r="N5" t="n">
-        <v>62.87990576767018</v>
+        <v>62.76926593290869</v>
       </c>
       <c r="O5" t="n">
-        <v>7.929685098897067</v>
+        <v>7.922705720453631</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9202727704073</v>
+        <v>335.9407851533697</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20122,28 +20168,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05247798982858908</v>
+        <v>-0.05376126474046122</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K6" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002509840075342828</v>
+        <v>0.00264741213824371</v>
       </c>
       <c r="M6" t="n">
-        <v>6.20340511233521</v>
+        <v>6.193796396232414</v>
       </c>
       <c r="N6" t="n">
-        <v>63.52811305573766</v>
+        <v>63.38104413961636</v>
       </c>
       <c r="O6" t="n">
-        <v>7.970452500061565</v>
+        <v>7.961221271866293</v>
       </c>
       <c r="P6" t="n">
-        <v>338.515901119328</v>
+        <v>338.5283552425197</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20200,28 +20246,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1444259238573881</v>
+        <v>-0.1465261908305622</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K7" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01551767768792667</v>
+        <v>0.01603999966625791</v>
       </c>
       <c r="M7" t="n">
-        <v>6.7713529335026</v>
+        <v>6.76507689057167</v>
       </c>
       <c r="N7" t="n">
-        <v>77.79188237004111</v>
+        <v>77.63748082738161</v>
       </c>
       <c r="O7" t="n">
-        <v>8.819970655849207</v>
+        <v>8.811213357272743</v>
       </c>
       <c r="P7" t="n">
-        <v>341.0011621772068</v>
+        <v>341.0214449097626</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20278,28 +20324,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2598816051750008</v>
+        <v>-0.2650376746833395</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K8" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04872079174927646</v>
+        <v>0.0506472409227976</v>
       </c>
       <c r="M8" t="n">
-        <v>6.919073430722968</v>
+        <v>6.929073027171186</v>
       </c>
       <c r="N8" t="n">
-        <v>77.41025839507144</v>
+        <v>77.50350374531325</v>
       </c>
       <c r="O8" t="n">
-        <v>8.798309973800164</v>
+        <v>8.80360742794187</v>
       </c>
       <c r="P8" t="n">
-        <v>346.7168550052747</v>
+        <v>346.7668235019657</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20356,28 +20402,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2248577858090638</v>
+        <v>-0.2247283793190876</v>
       </c>
       <c r="J9" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K9" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03578660510200171</v>
+        <v>0.03592919143675044</v>
       </c>
       <c r="M9" t="n">
-        <v>6.920556182953959</v>
+        <v>6.903417758809667</v>
       </c>
       <c r="N9" t="n">
-        <v>79.51762743379433</v>
+        <v>79.31339714963414</v>
       </c>
       <c r="O9" t="n">
-        <v>8.917265692677006</v>
+        <v>8.905806934221859</v>
       </c>
       <c r="P9" t="n">
-        <v>358.0900196642386</v>
+        <v>358.0887600424338</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20415,7 +20461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J423"/>
+  <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41375,6 +41421,58 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-42.525978588700845,173.50245358344227</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-42.526644063983596,173.5024560220401</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-42.52730105882852,173.50234295931685</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-42.52796206699888,173.50227113817024</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-42.528629940787674,173.50225615485104</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-42.5292948044015,173.5022093417448</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-42.52996196752067,173.50213776039018</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-42.53061832174808,173.50246322097686</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J424"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15189,6 +15189,78 @@
         <v>352.5085714285714</v>
       </c>
       <c r="J424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>334.71</v>
+      </c>
+      <c r="C425" t="n">
+        <v>329.78</v>
+      </c>
+      <c r="D425" t="n">
+        <v>322.7330769230769</v>
+      </c>
+      <c r="E425" t="n">
+        <v>335.62</v>
+      </c>
+      <c r="F425" t="n">
+        <v>335.96</v>
+      </c>
+      <c r="G425" t="n">
+        <v>329.2281818181818</v>
+      </c>
+      <c r="H425" t="n">
+        <v>334.2533333333333</v>
+      </c>
+      <c r="I425" t="n">
+        <v>351.2728571428572</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>339.23</v>
+      </c>
+      <c r="C426" t="n">
+        <v>335.89</v>
+      </c>
+      <c r="D426" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="E426" t="n">
+        <v>337.01</v>
+      </c>
+      <c r="F426" t="n">
+        <v>335.31</v>
+      </c>
+      <c r="G426" t="n">
+        <v>327.6636363636364</v>
+      </c>
+      <c r="H426" t="n">
+        <v>335.4866666666667</v>
+      </c>
+      <c r="I426" t="n">
+        <v>352.7142857142857</v>
+      </c>
+      <c r="J426" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15205,7 +15277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19683,6 +19755,26 @@
       </c>
       <c r="B447" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -19856,28 +19948,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3454831325074044</v>
+        <v>-0.3404545441682207</v>
       </c>
       <c r="J2" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K2" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0425735616368067</v>
+        <v>0.04176570501376431</v>
       </c>
       <c r="M2" t="n">
-        <v>10.04095479598282</v>
+        <v>10.01617870336479</v>
       </c>
       <c r="N2" t="n">
-        <v>154.1975875934446</v>
+        <v>153.5917482648666</v>
       </c>
       <c r="O2" t="n">
-        <v>12.41763212506493</v>
+        <v>12.39321379888472</v>
       </c>
       <c r="P2" t="n">
-        <v>340.6583944140647</v>
+        <v>340.6087055650783</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19934,28 +20026,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3639097761464299</v>
+        <v>-0.3602455894152932</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K3" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06452913907033409</v>
+        <v>0.06388537793961002</v>
       </c>
       <c r="M3" t="n">
-        <v>8.3402467977184</v>
+        <v>8.316763677156448</v>
       </c>
       <c r="N3" t="n">
-        <v>110.4673851373305</v>
+        <v>110.0281097833061</v>
       </c>
       <c r="O3" t="n">
-        <v>10.51034657550979</v>
+        <v>10.4894284774389</v>
       </c>
       <c r="P3" t="n">
-        <v>338.5120607918374</v>
+        <v>338.4759688650209</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20012,28 +20104,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2464656103975633</v>
+        <v>-0.2483725566506708</v>
       </c>
       <c r="J4" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K4" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05321714687535484</v>
+        <v>0.05442713983689373</v>
       </c>
       <c r="M4" t="n">
-        <v>6.153531947340756</v>
+        <v>6.147654874983406</v>
       </c>
       <c r="N4" t="n">
-        <v>62.42756273509664</v>
+        <v>62.25220522989049</v>
       </c>
       <c r="O4" t="n">
-        <v>7.901111487322314</v>
+        <v>7.890006668558049</v>
       </c>
       <c r="P4" t="n">
-        <v>336.0473930818351</v>
+        <v>336.0660286596775</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20090,28 +20182,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09910169666981503</v>
+        <v>-0.09629945260067869</v>
       </c>
       <c r="J5" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009005339083379194</v>
+        <v>0.008590250702347424</v>
       </c>
       <c r="M5" t="n">
-        <v>6.334798378225257</v>
+        <v>6.317071596240204</v>
       </c>
       <c r="N5" t="n">
-        <v>62.76926593290869</v>
+        <v>62.49891249893298</v>
       </c>
       <c r="O5" t="n">
-        <v>7.922705720453631</v>
+        <v>7.905625370515161</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9407851533697</v>
+        <v>335.9133658557255</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20168,28 +20260,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05376126474046122</v>
+        <v>-0.05521250976155807</v>
       </c>
       <c r="J6" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K6" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00264741213824371</v>
+        <v>0.002821717056630257</v>
       </c>
       <c r="M6" t="n">
-        <v>6.193796396232414</v>
+        <v>6.16912728031391</v>
       </c>
       <c r="N6" t="n">
-        <v>63.38104413961636</v>
+        <v>63.06616097238244</v>
       </c>
       <c r="O6" t="n">
-        <v>7.961221271866293</v>
+        <v>7.94142058906229</v>
       </c>
       <c r="P6" t="n">
-        <v>338.5283552425197</v>
+        <v>338.5424821897337</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20246,28 +20338,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1465261908305622</v>
+        <v>-0.1549513403413002</v>
       </c>
       <c r="J7" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01603999966625791</v>
+        <v>0.01800259021231265</v>
       </c>
       <c r="M7" t="n">
-        <v>6.76507689057167</v>
+        <v>6.775578303789001</v>
       </c>
       <c r="N7" t="n">
-        <v>77.63748082738161</v>
+        <v>77.62921512436549</v>
       </c>
       <c r="O7" t="n">
-        <v>8.811213357272743</v>
+        <v>8.81074430024873</v>
       </c>
       <c r="P7" t="n">
-        <v>341.0214449097626</v>
+        <v>341.103043709553</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20324,28 +20416,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2650376746833395</v>
+        <v>-0.269793561811856</v>
       </c>
       <c r="J8" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K8" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0506472409227976</v>
+        <v>0.05282885096336309</v>
       </c>
       <c r="M8" t="n">
-        <v>6.929073027171186</v>
+        <v>6.919155237216742</v>
       </c>
       <c r="N8" t="n">
-        <v>77.50350374531325</v>
+        <v>77.23215764570135</v>
       </c>
       <c r="O8" t="n">
-        <v>8.80360742794187</v>
+        <v>8.788182840934828</v>
       </c>
       <c r="P8" t="n">
-        <v>346.7668235019657</v>
+        <v>346.8130311154047</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20402,28 +20494,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2247283793190876</v>
+        <v>-0.2249499328175259</v>
       </c>
       <c r="J9" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K9" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03592919143675044</v>
+        <v>0.03636223746205014</v>
       </c>
       <c r="M9" t="n">
-        <v>6.903417758809667</v>
+        <v>6.871899457985084</v>
       </c>
       <c r="N9" t="n">
-        <v>79.31339714963414</v>
+        <v>78.91069260491822</v>
       </c>
       <c r="O9" t="n">
-        <v>8.905806934221859</v>
+        <v>8.883169063173245</v>
       </c>
       <c r="P9" t="n">
-        <v>358.0887600424338</v>
+        <v>358.0909113257054</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20461,7 +20553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J424"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41473,6 +41565,110 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:09+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-42.52599060591345,173.50261738911743</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-42.52664474839897,173.50246535130725</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-42.52729700219607,173.502287663499</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-42.52796759744074,173.502351393324</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-42.52863066195318,173.50227341692406</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-42.5292939415182,173.50216435033244</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-42.52996139646508,173.50219851384722</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-42.53061889317168,173.5024481945808</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-42.52599462344997,173.5026721525667</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-42.52665017925247,173.50253937965508</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-42.52730568361676,173.50240600009926</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-42.5279687586593,173.50236824448342</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-42.52863033184254,173.50226551527086</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-42.52929357628362,173.5021453069927</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-42.52996125531746,173.5022135297315</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-42.530618226620746,173.5024657224809</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J426"/>
+  <dimension ref="A1:J427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15261,6 +15261,42 @@
         <v>352.7142857142857</v>
       </c>
       <c r="J426" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>343.67</v>
+      </c>
+      <c r="C427" t="n">
+        <v>334.81</v>
+      </c>
+      <c r="D427" t="n">
+        <v>333.1915384615385</v>
+      </c>
+      <c r="E427" t="n">
+        <v>342.12</v>
+      </c>
+      <c r="F427" t="n">
+        <v>338.35</v>
+      </c>
+      <c r="G427" t="n">
+        <v>333.6463636363636</v>
+      </c>
+      <c r="H427" t="n">
+        <v>335</v>
+      </c>
+      <c r="I427" t="n">
+        <v>360.93</v>
+      </c>
+      <c r="J427" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15277,7 +15313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19775,6 +19811,16 @@
       </c>
       <c r="B449" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -19948,28 +19994,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3404545441682207</v>
+        <v>-0.3348111333507582</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04176570501376431</v>
+        <v>0.04056014240985706</v>
       </c>
       <c r="M2" t="n">
-        <v>10.01617870336479</v>
+        <v>10.0197490453441</v>
       </c>
       <c r="N2" t="n">
-        <v>153.5917482648666</v>
+        <v>153.5629930654267</v>
       </c>
       <c r="O2" t="n">
-        <v>12.39321379888472</v>
+        <v>12.3920536258292</v>
       </c>
       <c r="P2" t="n">
-        <v>340.6087055650783</v>
+        <v>340.5527712072485</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20026,28 +20072,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3602455894152932</v>
+        <v>-0.357488606156061</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K3" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06388537793961002</v>
+        <v>0.06324129479539142</v>
       </c>
       <c r="M3" t="n">
-        <v>8.316763677156448</v>
+        <v>8.309777740561341</v>
       </c>
       <c r="N3" t="n">
-        <v>110.0281097833061</v>
+        <v>109.8332497564982</v>
       </c>
       <c r="O3" t="n">
-        <v>10.4894284774389</v>
+        <v>10.48013596078306</v>
       </c>
       <c r="P3" t="n">
-        <v>338.4759688650209</v>
+        <v>338.4487467115459</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20104,28 +20150,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2483725566506708</v>
+        <v>-0.2466387601996645</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K4" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05442713983689373</v>
+        <v>0.05395365782352735</v>
       </c>
       <c r="M4" t="n">
-        <v>6.147654874983406</v>
+        <v>6.140711229341972</v>
       </c>
       <c r="N4" t="n">
-        <v>62.25220522989049</v>
+        <v>62.12753845242392</v>
       </c>
       <c r="O4" t="n">
-        <v>7.890006668558049</v>
+        <v>7.8821024132159</v>
       </c>
       <c r="P4" t="n">
-        <v>336.0660286596775</v>
+        <v>336.0489538240348</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20182,28 +20228,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09629945260067869</v>
+        <v>-0.09217327432341266</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K5" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008590250702347424</v>
+        <v>0.007892756157587333</v>
       </c>
       <c r="M5" t="n">
-        <v>6.317071596240204</v>
+        <v>6.322219181208992</v>
       </c>
       <c r="N5" t="n">
-        <v>62.49891249893298</v>
+        <v>62.53167528487415</v>
       </c>
       <c r="O5" t="n">
-        <v>7.905625370515161</v>
+        <v>7.907697217576945</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9133658557255</v>
+        <v>335.8728553181845</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20260,28 +20306,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05521250976155807</v>
+        <v>-0.05460473104793508</v>
       </c>
       <c r="J6" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K6" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002821717056630257</v>
+        <v>0.002774876441367535</v>
       </c>
       <c r="M6" t="n">
-        <v>6.16912728031391</v>
+        <v>6.156622368095264</v>
       </c>
       <c r="N6" t="n">
-        <v>63.06616097238244</v>
+        <v>62.90803105148223</v>
       </c>
       <c r="O6" t="n">
-        <v>7.94142058906229</v>
+        <v>7.931458318082635</v>
       </c>
       <c r="P6" t="n">
-        <v>338.5424821897337</v>
+        <v>338.5365457150258</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20338,28 +20384,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1549513403413002</v>
+        <v>-0.1565873932425328</v>
       </c>
       <c r="J7" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K7" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01800259021231265</v>
+        <v>0.01846736508328806</v>
       </c>
       <c r="M7" t="n">
-        <v>6.775578303789001</v>
+        <v>6.76701086679304</v>
       </c>
       <c r="N7" t="n">
-        <v>77.62921512436549</v>
+        <v>77.45833452761063</v>
       </c>
       <c r="O7" t="n">
-        <v>8.81074430024873</v>
+        <v>8.801041672870923</v>
       </c>
       <c r="P7" t="n">
-        <v>341.103043709553</v>
+        <v>341.1189477312529</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20416,28 +20462,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.269793561811856</v>
+        <v>-0.2720614036917267</v>
       </c>
       <c r="J8" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K8" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05282885096336309</v>
+        <v>0.05390309257221881</v>
       </c>
       <c r="M8" t="n">
-        <v>6.919155237216742</v>
+        <v>6.913727366773016</v>
       </c>
       <c r="N8" t="n">
-        <v>77.23215764570135</v>
+        <v>77.09134485619259</v>
       </c>
       <c r="O8" t="n">
-        <v>8.788182840934828</v>
+        <v>8.78016770091509</v>
       </c>
       <c r="P8" t="n">
-        <v>346.8130311154047</v>
+        <v>346.8351549243108</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20494,28 +20540,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2249499328175259</v>
+        <v>-0.2208090672143826</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K9" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03636223746205014</v>
+        <v>0.03517718422708382</v>
       </c>
       <c r="M9" t="n">
-        <v>6.871899457985084</v>
+        <v>6.87515687333214</v>
       </c>
       <c r="N9" t="n">
-        <v>78.91069260491822</v>
+        <v>78.90194614987588</v>
       </c>
       <c r="O9" t="n">
-        <v>8.883169063173245</v>
+        <v>8.882676744646057</v>
       </c>
       <c r="P9" t="n">
-        <v>358.0909113257054</v>
+        <v>358.0503391441058</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20553,7 +20599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J426"/>
+  <dimension ref="A1:J427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41669,6 +41715,58 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-42.52599856985412,173.50272594675798</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-42.52664921930149,173.50252629444702</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-42.52730629829253,173.5024143788201</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-42.527973027578156,173.50243019371487</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-42.52863187573996,173.50230247069564</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-42.52929497290149,173.50221812757405</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-42.529961311013786,173.50220760454474</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-42.53061442742741,173.5025656262924</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J427"/>
+  <dimension ref="A1:J428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15299,6 +15299,42 @@
       <c r="J427" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>336.39</v>
+      </c>
+      <c r="C428" t="n">
+        <v>338.41</v>
+      </c>
+      <c r="D428" t="n">
+        <v>343.5907692307692</v>
+      </c>
+      <c r="E428" t="n">
+        <v>332.76</v>
+      </c>
+      <c r="F428" t="n">
+        <v>329.18</v>
+      </c>
+      <c r="G428" t="n">
+        <v>326.0763636363636</v>
+      </c>
+      <c r="H428" t="n">
+        <v>337.23</v>
+      </c>
+      <c r="I428" t="n">
+        <v>346.7242857142857</v>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15313,7 +15349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19821,6 +19857,16 @@
       </c>
       <c r="B450" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -20599,7 +20645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J427"/>
+  <dimension ref="A1:J428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41767,6 +41813,58 @@
         </is>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-42.525992099160156,173.50263774367298</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-42.52665241913227,173.5025699118087</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-42.527315541602064,173.50254037653377</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-42.5279652081631,173.5023167211562</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-42.52862721861833,173.502190996607</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>-42.52929320574023,173.5021259870213</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>-42.52996105580002,173.5022347548867</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-42.53062099652199,173.5023928835436</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -20040,28 +20040,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3348111333507582</v>
+        <v>-0.3326534549758164</v>
       </c>
       <c r="J2" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04056014240985706</v>
+        <v>0.04024568030950981</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0197490453441</v>
+        <v>10.00590870467246</v>
       </c>
       <c r="N2" t="n">
-        <v>153.5629930654267</v>
+        <v>153.2332431309418</v>
       </c>
       <c r="O2" t="n">
-        <v>12.3920536258292</v>
+        <v>12.37874158107123</v>
       </c>
       <c r="P2" t="n">
-        <v>340.5527712072485</v>
+        <v>340.5313627296802</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20118,28 +20118,28 @@
         <v>0.0577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.357488606156061</v>
+        <v>-0.3530506234351243</v>
       </c>
       <c r="J3" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K3" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06324129479539142</v>
+        <v>0.06196807170447693</v>
       </c>
       <c r="M3" t="n">
-        <v>8.309777740561341</v>
+        <v>8.311307591152683</v>
       </c>
       <c r="N3" t="n">
-        <v>109.8332497564982</v>
+        <v>109.7736030366326</v>
       </c>
       <c r="O3" t="n">
-        <v>10.48013596078306</v>
+        <v>10.47728987079352</v>
       </c>
       <c r="P3" t="n">
-        <v>338.4487467115459</v>
+        <v>338.4048800901277</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20196,28 +20196,28 @@
         <v>0.0721</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2466387601996645</v>
+        <v>-0.23997532992062</v>
       </c>
       <c r="J4" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K4" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05395365782352735</v>
+        <v>0.05109775801966487</v>
       </c>
       <c r="M4" t="n">
-        <v>6.140711229341972</v>
+        <v>6.158259765067629</v>
       </c>
       <c r="N4" t="n">
-        <v>62.12753845242392</v>
+        <v>62.46156677936617</v>
       </c>
       <c r="O4" t="n">
-        <v>7.8821024132159</v>
+        <v>7.90326304632246</v>
       </c>
       <c r="P4" t="n">
-        <v>336.0489538240348</v>
+        <v>335.9832608875255</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20274,28 +20274,28 @@
         <v>0.0529</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09217327432341266</v>
+        <v>-0.09250257404427865</v>
       </c>
       <c r="J5" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K5" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007892756157587333</v>
+        <v>0.007989806517823883</v>
       </c>
       <c r="M5" t="n">
-        <v>6.322219181208992</v>
+        <v>6.30817375624529</v>
       </c>
       <c r="N5" t="n">
-        <v>62.53167528487415</v>
+        <v>62.37617405943469</v>
       </c>
       <c r="O5" t="n">
-        <v>7.907697217576945</v>
+        <v>7.897858827519943</v>
       </c>
       <c r="P5" t="n">
-        <v>335.8728553181845</v>
+        <v>335.8760918305416</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20352,28 +20352,28 @@
         <v>0.0533</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05460473104793508</v>
+        <v>-0.05843183585763938</v>
       </c>
       <c r="J6" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K6" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002774876441367535</v>
+        <v>0.003185185558416848</v>
       </c>
       <c r="M6" t="n">
-        <v>6.156622368095264</v>
+        <v>6.160252188375426</v>
       </c>
       <c r="N6" t="n">
-        <v>62.90803105148223</v>
+        <v>62.90658769302515</v>
       </c>
       <c r="O6" t="n">
-        <v>7.931458318082635</v>
+        <v>7.931367328085691</v>
       </c>
       <c r="P6" t="n">
-        <v>338.5365457150258</v>
+        <v>338.5739668615824</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20430,28 +20430,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1565873932425328</v>
+        <v>-0.1618158207883676</v>
       </c>
       <c r="J7" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K7" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01846736508328806</v>
+        <v>0.0197225690469135</v>
       </c>
       <c r="M7" t="n">
-        <v>6.76701086679304</v>
+        <v>6.778254440600179</v>
       </c>
       <c r="N7" t="n">
-        <v>77.45833452761063</v>
+        <v>77.56496831380774</v>
       </c>
       <c r="O7" t="n">
-        <v>8.801041672870923</v>
+        <v>8.807097610098786</v>
       </c>
       <c r="P7" t="n">
-        <v>341.1189477312529</v>
+        <v>341.1698287133817</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20508,28 +20508,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2720614036917267</v>
+        <v>-0.273238773927155</v>
       </c>
       <c r="J8" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K8" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05390309257221881</v>
+        <v>0.05460457071874636</v>
       </c>
       <c r="M8" t="n">
-        <v>6.913727366773016</v>
+        <v>6.902433364441009</v>
       </c>
       <c r="N8" t="n">
-        <v>77.09134485619259</v>
+        <v>76.90937616418987</v>
       </c>
       <c r="O8" t="n">
-        <v>8.78016770091509</v>
+        <v>8.769799094859007</v>
       </c>
       <c r="P8" t="n">
-        <v>346.8351549243108</v>
+        <v>346.8466533089071</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20586,28 +20586,28 @@
         <v>0.0414</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2208090672143826</v>
+        <v>-0.223427269886886</v>
       </c>
       <c r="J9" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K9" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03517718422708382</v>
+        <v>0.03613285155217438</v>
       </c>
       <c r="M9" t="n">
-        <v>6.87515687333214</v>
+        <v>6.87258965235424</v>
       </c>
       <c r="N9" t="n">
-        <v>78.90194614987588</v>
+        <v>78.77885579800777</v>
       </c>
       <c r="O9" t="n">
-        <v>8.882676744646057</v>
+        <v>8.875745365771134</v>
       </c>
       <c r="P9" t="n">
-        <v>358.0503391441058</v>
+        <v>358.0760202871052</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0397/nzd0397.xlsx
+++ b/data/nzd0397/nzd0397.xlsx
@@ -20031,13 +20031,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0341</v>
+        <v>0.0766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0433</v>
+        <v>0.1131</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3326534549758164</v>
@@ -20109,13 +20109,13 @@
         <v>0.142878826433204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0464</v>
+        <v>0.0692</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0577</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3530506234351241</v>
@@ -20187,13 +20187,13 @@
         <v>0.2857576528656314</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0588</v>
+        <v>0.0793</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0721</v>
+        <v>0.1003</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2399596238372767</v>
@@ -20265,13 +20265,13 @@
         <v>0.4286364792988354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0482</v>
+        <v>0.0901</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0529</v>
+        <v>0.1183</v>
       </c>
       <c r="I5" t="n">
         <v>-0.09250257404427865</v>
@@ -20343,13 +20343,13 @@
         <v>0.5714631931701877</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0447</v>
+        <v>0.0767</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0533</v>
+        <v>0.0905</v>
       </c>
       <c r="I6" t="n">
         <v>-0.05843183585763929</v>
@@ -20421,13 +20421,13 @@
         <v>0.7143420196046188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0483</v>
+        <v>0.0717</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0602</v>
+        <v>0.0882</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1618539485003962</v>
@@ -20499,13 +20499,13 @@
         <v>0.8572208460388908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0531</v>
+        <v>0.0839</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.1025</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2732742479702863</v>
@@ -20577,13 +20577,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0343</v>
+        <v>0.0633</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0414</v>
+        <v>0.0784</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2234430400378951</v>
